--- a/data/trans_dic/ProbViv_temp-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3646080894710191</v>
+        <v>0.3613456602846483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3091002414872208</v>
+        <v>0.3054655979067771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3491369023563601</v>
+        <v>0.3454505878699665</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.451649574230907</v>
+        <v>0.4458352901060804</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3810406912480981</v>
+        <v>0.3787632396352838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4045626276614042</v>
+        <v>0.4027277088376019</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3485728742515333</v>
+        <v>0.3488308374488719</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3740228920649074</v>
+        <v>0.3739352480289466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.371574785232452</v>
+        <v>0.3652158511285846</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.440860480909689</v>
+        <v>0.4420346653871899</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4587366300173593</v>
+        <v>0.4575671330328673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4299839940934269</v>
+        <v>0.4350779190917753</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.4240130560837189</v>
+        <v>0.4240130560837188</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.4134554845972927</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3786301373893582</v>
+        <v>0.3803475794808588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.352280964931115</v>
+        <v>0.3490554576431618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3797281109832246</v>
+        <v>0.3859062634312966</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4711651543339978</v>
+        <v>0.4706757477101324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4720684127045001</v>
+        <v>0.4720934721382162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4557667869383243</v>
+        <v>0.4583545774297594</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3629033143903036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3787885233424803</v>
+        <v>0.3787885233424804</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3596596635931566</v>
+        <v>0.3596729080618518</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3328613364736911</v>
+        <v>0.3346701272503044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3555888798864799</v>
+        <v>0.3564659139974869</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4222939084469068</v>
+        <v>0.4219216418637116</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3914231094799124</v>
+        <v>0.3918387744721812</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3990358811946008</v>
+        <v>0.4021076007128929</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4614031427554837</v>
+        <v>0.4614031427554836</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4815518155579956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4733708023779337</v>
+        <v>0.4733708023779336</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4157113761921317</v>
+        <v>0.4167601518936864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.45428908813653</v>
+        <v>0.4539323414818895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4469617469984427</v>
+        <v>0.4468651466905915</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5027819063464398</v>
+        <v>0.5066587892843722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5117761737346892</v>
+        <v>0.5112556070250608</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4991918117130826</v>
+        <v>0.4984520534545209</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.4545278906270722</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4394443915890586</v>
+        <v>0.4394443915890587</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.4427529404615305</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3438974004824446</v>
+        <v>0.3512906227656056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4051195376451341</v>
+        <v>0.4072089941619221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4056587344543791</v>
+        <v>0.4094830442387919</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5563929193922993</v>
+        <v>0.5551569918987306</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4695596031200487</v>
+        <v>0.4720836570842323</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4734031785187026</v>
+        <v>0.4748652282339715</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3953070757106542</v>
+        <v>0.3948952067500142</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.399549649622375</v>
+        <v>0.4001407886405544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4026504394904145</v>
+        <v>0.4021599221757162</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4338127353521847</v>
+        <v>0.4329715628576004</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4289054384596356</v>
+        <v>0.4284798548103159</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4259598460431207</v>
+        <v>0.424953133415539</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>200760</v>
+        <v>198963</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>150968</v>
+        <v>149193</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>362763</v>
+        <v>358933</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>248686</v>
+        <v>245485</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>186104</v>
+        <v>184992</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>420352</v>
+        <v>418446</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168435</v>
+        <v>168559</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>158265</v>
+        <v>158228</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>336779</v>
+        <v>331015</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>213029</v>
+        <v>213596</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>194111</v>
+        <v>193616</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>389718</v>
+        <v>394335</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>178567</v>
+        <v>179376</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>66052</v>
+        <v>65447</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>250282</v>
+        <v>254354</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>222207</v>
+        <v>221976</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>88511</v>
+        <v>88516</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>300400</v>
+        <v>302106</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>407078</v>
+        <v>407093</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>286664</v>
+        <v>288222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>708708</v>
+        <v>710456</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>477970</v>
+        <v>477549</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>337098</v>
+        <v>337456</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>795300</v>
+        <v>801422</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>236109</v>
+        <v>236705</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>377446</v>
+        <v>377150</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>625216</v>
+        <v>625081</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>285562</v>
+        <v>287764</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>425209</v>
+        <v>424777</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>698276</v>
+        <v>697242</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>81582</v>
+        <v>83336</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>342035</v>
+        <v>343799</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>438724</v>
+        <v>442860</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>131992</v>
+        <v>131699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>396440</v>
+        <v>398571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>511990</v>
+        <v>513571</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1360835</v>
+        <v>1359417</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1452520</v>
+        <v>1454669</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2849907</v>
+        <v>2846435</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1493390</v>
+        <v>1490494</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1559240</v>
+        <v>1557693</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3014888</v>
+        <v>3007763</v>
       </c>
     </row>
     <row r="32">
